--- a/report/reliability/comb/Instituto de Ciências Humanas, Comunicação e Artes - ICHCA-Graduação (licenciatura)-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Ciências Humanas, Comunicação e Artes - ICHCA-Graduação (licenciatura)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7997716844660359</v>
+        <v>0.7772137924164951</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8029502453195512</v>
+        <v>0.7986505855541001</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9035544568145806</v>
+        <v>0.9028702812966225</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2534927402483084</v>
+        <v>0.23378380313531807</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.074860415947627</v>
+        <v>3.9664907283288255</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.025268108119726292</v>
+        <v>0.026159266854784452</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.3386150234741785</v>
+        <v>1.790899241603467</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.790707381272427</v>
+        <v>0.6536369613161666</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20995139138332586</v>
+        <v>0.17809144147940922</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7820556549705034</v>
+        <v>0.7772039316062511</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7831033755358164</v>
+        <v>0.7913160499963864</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8834963682442873</v>
+        <v>0.896565377338409</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.24711635122649428</v>
+        <v>0.2401184704016724</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.610491299578207</v>
+        <v>3.791935364376055</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02756248178465844</v>
+        <v>0.026747779643018534</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03811341552162071</v>
+        <v>0.05474402995452255</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.20533807374064023</v>
+        <v>0.19214598736184277</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7861873561182929</v>
+        <v>0.7614711541450911</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.788131219535681</v>
+        <v>0.7817339150164999</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8846562259624279</v>
+        <v>0.8889801988876073</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2527124447539407</v>
+        <v>0.22985907371697753</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.7199025633151774</v>
+        <v>3.5815638287349856</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.027033316844193772</v>
+        <v>0.027738243246012834</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.036880438151529187</v>
+        <v>0.05520367577417398</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.21147075834998463</v>
+        <v>0.17607511304914664</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7839855608986266</v>
+        <v>0.7688460077752975</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7867335742472426</v>
+        <v>0.7858337383546521</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8789902906193282</v>
+        <v>0.8919289377095255</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.25113881015393724</v>
+        <v>0.23416978841896421</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.688970598491263</v>
+        <v>3.66926953067877</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.027290178106273027</v>
+        <v>0.026790608539554284</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0365373168054645</v>
+        <v>0.05481251298782</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2084320244166671</v>
+        <v>0.1813503821500605</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7802214936403346</v>
+        <v>0.7666822955457694</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7826221655050434</v>
+        <v>0.7751495304053295</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8773092313051318</v>
+        <v>0.8842410453942942</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2465900514919166</v>
+        <v>0.22317024705548963</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.6002850397481576</v>
+        <v>3.4474000957287876</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.02771925477746187</v>
+        <v>0.027811979373814584</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.037052326175670496</v>
+        <v>0.047124984740978426</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2084320244166671</v>
+        <v>0.18146473654824385</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7758677061608102</v>
+        <v>0.742940191766235</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7814690005649622</v>
+        <v>0.7704857358764005</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8666879480727566</v>
+        <v>0.8815122985729256</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.24533530549648652</v>
+        <v>0.218598790340359</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.5760098227952644</v>
+        <v>3.357027672412873</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.028398936657336348</v>
+        <v>0.030228412596170977</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03575666990762019</v>
+        <v>0.04674916655472057</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20533807374064023</v>
+        <v>0.16327283200679343</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7775559431476603</v>
+        <v>0.7449670652948731</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7829460266695916</v>
+        <v>0.771545137374545</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8680975983163463</v>
+        <v>0.8824853926694742</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.24694408287817515</v>
+        <v>0.21962549704740675</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.6071490176213388</v>
+        <v>3.377232283470677</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.028183734906047257</v>
+        <v>0.029954736089637637</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03598348443412218</v>
+        <v>0.04731538017733917</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2084320244166671</v>
+        <v>0.15878565497268948</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8006215197550569</v>
+        <v>0.7800931568445547</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8061607487396982</v>
+        <v>0.8085793859421629</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8974756767758395</v>
+        <v>0.9062467633592703</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.27435434349972154</v>
+        <v>0.2603594861279073</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.158913860315759</v>
+        <v>4.224097754162749</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.025294038078965225</v>
+        <v>0.026487524910187316</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03864720032464672</v>
+        <v>0.053176609226637965</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.22236126798112796</v>
+        <v>0.1999529941165925</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8012425275807122</v>
+        <v>0.7747128443811924</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8021897862456718</v>
+        <v>0.7950373393324992</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8948636960042443</v>
+        <v>0.8947636241194046</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2693627515768885</v>
+        <v>0.24428192746474478</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.055350687007279</v>
+        <v>3.8789374452073653</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.025045179207862936</v>
+        <v>0.026119149475908352</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03967674473773844</v>
+        <v>0.05751044825060971</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.22022240702505322</v>
+        <v>0.19471228835103038</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7996121910892315</v>
+        <v>0.7727069523059203</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8030698147429589</v>
+        <v>0.7897109482319998</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9049359750346</v>
+        <v>0.8980377641674117</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2704574524977215</v>
+        <v>0.23835440599543814</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.077941701495683</v>
+        <v>3.755359309448229</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.025531590924509837</v>
+        <v>0.02617039324878273</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.040049682916075295</v>
+        <v>0.05968065403048443</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2141215070921572</v>
+        <v>0.18581447940758788</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7822719897464367</v>
+        <v>0.7742035899700355</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7859332280537065</v>
+        <v>0.8000709033980451</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8967608144331999</v>
+        <v>0.9035061788675556</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.25024399212410264</v>
+        <v>0.2500831101760631</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.671439620955681</v>
+        <v>4.00177321358547</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02759007458947961</v>
+        <v>0.026477805972540912</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04412935435120273</v>
+        <v>0.058230090240813555</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.20258129049254134</v>
+        <v>0.18255553873693664</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.776856789069398</v>
+        <v>0.7562613923604465</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7803595229671034</v>
+        <v>0.7856301826868239</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8813292316868662</v>
+        <v>0.8960389626147854</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2441366407067371</v>
+        <v>0.233953030409825</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.552894864866939</v>
+        <v>3.6648358082009533</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.028264470169133072</v>
+        <v>0.028585899373785563</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03954592446638673</v>
+        <v>0.061358014470739713</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.20251929510578012</v>
+        <v>0.15878565497268948</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7761243161100252</v>
+        <v>0.7456104396132974</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7797863595826037</v>
+        <v>0.7762800293343611</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8807336044833</v>
+        <v>0.8810751768395513</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24352065657357924</v>
+        <v>0.2242987707634484</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.54104476954554</v>
+        <v>3.469873641698944</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.028380418035383458</v>
+        <v>0.029959128986839084</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03885155807501583</v>
+        <v>0.058134780679101605</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.20258129049254134</v>
+        <v>0.1516224592856136</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7428922194681147</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7742892231615323</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8803485532627342</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.22231684284083883</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.4304486210495</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.030365774809776487</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.057467082273383076</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.15878565497268948</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>142.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5861618764939401</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6138870718074063</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.5917420592955116</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4967328273969733</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.3098591549295775</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.161944436554088</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5471930072470311</v>
+        <v>0.3796591770944005</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5682384193035619</v>
+        <v>0.48159698970388193</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5446793863116658</v>
+        <v>0.444969664228875</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.43557466602570405</v>
+        <v>0.355994493016437</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.823943661971831</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3490174821018006</v>
+        <v>0.2313895088043898</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5653953322927969</v>
+        <v>0.5298339670983456</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.581074927248125</v>
+        <v>0.5778675729869628</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5693427435786129</v>
+        <v>0.5593391141949303</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4631747251403583</v>
+        <v>0.42052114011209346</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.204225352112676</v>
+        <v>3.3098591549295775</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.2746226386040982</v>
+        <v>1.161944436554088</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6107282240685299</v>
+        <v>0.48323444611336663</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6181802226596517</v>
+        <v>0.5374173368296742</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6092943891447188</v>
+        <v>0.5124639594873962</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4955672062426506</v>
+        <v>0.34752135399896894</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.640845070422535</v>
+        <v>3.823943661971831</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.50809423344874</v>
+        <v>1.3490174821018006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6459873860802209</v>
+        <v>0.6324329346066483</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6284154811743738</v>
+        <v>0.6406331784091128</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6489610030656224</v>
+        <v>0.6615173693990541</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.537555045859407</v>
+        <v>0.6033728371735194</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6901408450704225</v>
+        <v>0.19014084507042253</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5120466548373945</v>
+        <v>0.3938012349473898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6332012174454019</v>
+        <v>0.6885563998495497</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6152923052852355</v>
+        <v>0.6835301262457754</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6347813111308233</v>
+        <v>0.7105204655033712</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5209496425028929</v>
+        <v>0.575717957237791</v>
       </c>
       <c r="G32" t="n" s="89">
         <v>0.6901408450704225</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.5260531700744624</v>
+        <v>1.5120466548373945</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3970677321290647</v>
+        <v>0.6762204257015355</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3917003556482298</v>
+        <v>0.6738958702962426</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.32553075633627576</v>
+        <v>0.6987270146548188</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.26945072071978465</v>
+        <v>0.5589741998585812</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6619718309859155</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3309588286104863</v>
+        <v>1.5260531700744624</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.45179634407647695</v>
+        <v>0.20419457779789235</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.43241794623331375</v>
+        <v>0.29166239119930937</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3726630582460353</v>
+        <v>0.21483461898124753</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.2999171815733963</v>
+        <v>0.17498008836250092</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.823943661971831</v>
+        <v>0.9295774647887324</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6255901089995826</v>
+        <v>0.2567634704786694</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4310231595630615</v>
+        <v>0.42863561551434476</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4234882130746994</v>
+        <v>0.4425285676265883</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.33903869735870923</v>
+        <v>0.39411507994259304</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.2943783922973304</v>
+        <v>0.2882800963898282</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.380281690140845</v>
+        <v>2.6619718309859155</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4524735290916722</v>
+        <v>1.3309588286104863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5907600149443654</v>
+        <v>0.5052468696689477</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5883741686024295</v>
+        <v>0.4981503519099114</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5248465435078773</v>
+        <v>0.4430426449190323</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.47570955036310125</v>
+        <v>0.3418687933506839</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.9014084507042253</v>
+        <v>2.823943661971831</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4650048248894458</v>
+        <v>1.6255901089995826</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.63494073833362</v>
+        <v>0.45786335941606665</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6381932720900367</v>
+        <v>0.3880923019752659</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6206383371891899</v>
+        <v>0.31106603312276765</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5355531439832005</v>
+        <v>0.3071462288879732</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0211267605633805</v>
+        <v>1.380281690140845</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3759242405498546</v>
+        <v>1.4524735290916722</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>142.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6418929401020071</v>
+        <v>0.5958955885011034</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.643217999697696</v>
+        <v>0.5394513180288067</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6275789095272766</v>
+        <v>0.4805844723922535</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5471857789711903</v>
+        <v>0.4664559344506981</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>1.9014084507042253</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4650048248894458</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>142.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6679667397673228</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.630043507402819</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6157484857352588</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5623035827493763</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.0211267605633805</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3759242405498546</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>142.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6883805848783939</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6486412245004816</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.636276862116829</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5909619437846118</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.9154929577464788</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3341821291903007</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.04929577464788732</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.352112676056338</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4647887323943662</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06338028169014084</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2323943661971831</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.2323943661971831</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4154929577464789</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.07746478873239436</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.04929577464788732</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.035211267605633804</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.34507042253521125</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4154929577464789</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07746478873239436</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.07746478873239436</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.007042253521126761</v>
+        <v>0.04929577464788732</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.08450704225352113</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3028169014084507</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.08450704225352113</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.44366197183098594</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8098591549295775</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.014084507042253521</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.007042253521126761</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.06338028169014084</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.056338028169014086</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.04929577464788732</v>
+        <v>0.4154929577464789</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8098591549295775</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.014084507042253521</v>
+        <v>0.19014084507042253</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06338028169014084</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.035211267605633804</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.06338028169014084</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.07042253521126761</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.20422535211267606</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.028169014084507043</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4295774647887324</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.22535211267605634</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.04225352112676056</v>
+        <v>0.04929577464788732</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.07042253521126761</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.19718309859154928</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.19718309859154928</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.11267605633802817</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.21830985915492956</v>
+        <v>0.035211267605633804</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.20422535211267606</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4295774647887324</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.176056338028169</v>
+        <v>0.9295774647887324</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.06338028169014084</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.24647887323943662</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.08450704225352113</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2605633802816901</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.18309859154929578</v>
+        <v>0.20422535211267606</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.1056338028169014</v>
+        <v>0.028169014084507043</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.29577464788732394</v>
+        <v>0.4295774647887324</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.15492957746478872</v>
+        <v>0.22535211267605634</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="C53" t="n" s="110">
+        <v>0.19718309859154928</v>
+      </c>
+      <c r="D53" t="n" s="111">
+        <v>0.19718309859154928</v>
+      </c>
+      <c r="E53" t="n" s="112">
+        <v>0.11267605633802817</v>
+      </c>
+      <c r="F53" t="n" s="113">
         <v>0.21830985915492956</v>
       </c>
-      <c r="C53" t="n" s="110">
-        <v>0.11267605633802817</v>
-      </c>
-      <c r="D53" t="n" s="111">
-        <v>0.2605633802816901</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.24647887323943662</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.1619718309859155</v>
-      </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.20422535211267606</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.23943661971830985</v>
+        <v>0.4295774647887324</v>
       </c>
       <c r="C54" t="n" s="110">
+        <v>0.176056338028169</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.06338028169014084</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.24647887323943662</v>
+      </c>
+      <c r="F54" t="n" s="113">
         <v>0.08450704225352113</v>
-      </c>
-      <c r="D54" t="n" s="111">
-        <v>0.323943661971831</v>
-      </c>
-      <c r="E54" t="n" s="112">
-        <v>0.22535211267605634</v>
-      </c>
-      <c r="F54" t="n" s="113">
-        <v>0.1267605633802817</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2605633802816901</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.18309859154929578</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.1056338028169014</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.29577464788732394</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.15492957746478872</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.21830985915492956</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.11267605633802817</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2605633802816901</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24647887323943662</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1619718309859155</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.23943661971830985</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.323943661971831</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.22535211267605634</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.1267605633802817</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8394654635321663</v>
+        <v>0.8744416353371147</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8421641404472343</v>
+        <v>0.9814420419307837</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8812810016810311</v>
+        <v>0.9731059968853953</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5715370267820862</v>
+        <v>0.9463185615596922</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.335695847784781</v>
+        <v>52.88523868144688</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.022877611515291697</v>
+        <v>0.0035943447539607157</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.494718309859155</v>
+        <v>0.5234741784037559</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0921497401179365</v>
+        <v>1.1273502810328773</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5057466325240333</v>
+        <v>0.9453098725339913</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8070307803415736</v>
+        <v>0.9780127411077686</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8067148212020667</v>
+        <v>0.978033985597967</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7885676529395476</v>
+        <v>0.9570122409307601</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5818059046068211</v>
+        <v>0.95701224093076</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.1737024339845155</v>
+        <v>44.52487227302584</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.028363999552612207</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.041926749979471545</v>
-      </c>
+        <v>0.003688396207905584</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5229826161266729</v>
+        <v>0.9570122409307601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8055198237885463</v>
+        <v>0.6237460739141865</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.804345072187844</v>
+        <v>0.9672801144586467</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7803264780170481</v>
+        <v>0.9366335712143249</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5781207320111422</v>
+        <v>0.936633571214325</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.111039170759234</v>
+        <v>29.56245409954572</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.02774313492520636</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.04084717622575072</v>
-      </c>
+        <v>0.012008473306419524</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.4885106489213938</v>
+        <v>0.936633571214325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.788683070283815</v>
+        <v>0.6311869058120161</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8008680080560867</v>
+        <v>0.9718861615631609</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7633610007914396</v>
+        <v>0.9453098725339913</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5727588046924442</v>
+        <v>0.9453098725339912</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.021794791675944</v>
+        <v>34.56967157816643</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.031598779554336924</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.027887201771979238</v>
-      </c>
+        <v>0.011099199152978904</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5229826161266729</v>
+        <v>0.9453098725339913</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7837395543175486</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7880620981307584</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7522835653075617</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.553462665817937</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.7183632147918786</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.03237398862421288</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.03310799649362618</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.4885106489213938</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>142.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9616965110633928</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9783130544344976</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9593073043891649</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9512298422761963</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.19014084507042253</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3938012349473898</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>142.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7935016524147624</v>
+        <v>0.9889746101679606</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8144549436583832</v>
+        <v>0.9852308579947461</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7504003380611342</v>
+        <v>0.9765188547891365</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6550011019716182</v>
+        <v>0.9646300828488781</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.3098591549295775</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.161944436554088</v>
+        <v>1.5120466548373945</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>142.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8116801920556894</v>
+        <v>0.9881423845147617</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8178099649703306</v>
+        <v>0.982285575059493</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7586747154109107</v>
+        <v>0.9701207766693533</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.652452154135641</v>
+        <v>0.9614604095635414</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.823943661971831</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3490174821018006</v>
+        <v>1.5260531700744624</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>142.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.828666156140763</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8226915220644105</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7806531926684815</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6922254894958763</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.204225352112676</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.2746226386040982</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>142.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8589560850376664</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8402589372889189</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8037068490647871</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7082738752455044</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.640845070422535</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.50809423344874</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8098591549295775</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.19014084507042253</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8098591549295775</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.007042253521126761</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.06338028169014084</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.056338028169014086</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.04929577464788732</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.056338028169014086</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.04929577464788732</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.014084507042253521</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.352112676056338</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4647887323943662</v>
+        <v>0.035211267605633804</v>
       </c>
       <c r="G27" t="n" s="229">
         <v>0.06338028169014084</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2323943661971831</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2323943661971831</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4154929577464789</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.07746478873239436</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.04929577464788732</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.035211267605633804</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.34507042253521125</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4154929577464789</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07746478873239436</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.07746478873239436</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3028169014084507</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.44366197183098594</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.759560118742675</v>
+        <v>0.6558882761476351</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.768939272939307</v>
+        <v>0.7872738541361053</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.624615224933089</v>
+        <v>0.718771273679871</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.624615224933089</v>
+        <v>0.5522975821111848</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.327866586074267</v>
+        <v>3.700879602452887</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.03907709355861184</v>
+        <v>0.02849630228024855</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.742957746478873</v>
+        <v>2.1384976525821595</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3338685745186827</v>
+        <v>0.9405018174523494</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6246152249330891</v>
+        <v>0.5524417398273805</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6246152249330891</v>
+        <v>0.759560118742675</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6246152249330891</v>
+        <v>0.768939272939307</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.3901441792182132</v>
+        <v>0.624615224933089</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6246152249330891</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6246152249330891</v>
-      </c>
+        <v>0.624615224933089</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.327866586074267</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03907709355861184</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6246152249330891</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.3901441792182132</v>
+        <v>0.2576748220854952</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6246152249330891</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.3901441792182132</v>
-      </c>
+        <v>0.6484986882301402</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4798357815730847</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.47983578157308493</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.8449395962844513</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.034065069314345456</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6246152249330891</v>
+        <v>0.47983578157308504</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3409398394516101</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7117068881294157</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5524417398273805</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5524417398273807</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.4686919625360444</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.035046291555436475</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5524417398273805</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>142.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8795196187296495</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9012810951454294</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7123059048440152</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6246152249330891</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.6619718309859155</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3309588286104863</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>142.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9209780123935252</v>
+        <v>0.628053715219227</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9012810951454294</v>
+        <v>0.8087943376295734</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7123059048440152</v>
+        <v>0.6418130508690478</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6246152249330891</v>
+        <v>0.5680070511940293</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9295774647887324</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2567634704786694</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>142.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8818604325109598</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8664128433511935</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7746231739166066</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6562988823308211</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6619718309859155</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3309588286104863</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>142.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9144520899259453</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8375175338790026</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7138613225785229</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6413742213475495</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.823943661971831</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6255901089995826</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.07042253521126761</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9295774647887324</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.20422535211267606</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.028169014084507043</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4295774647887324</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.22535211267605634</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.04225352112676056</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.07042253521126761</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.19718309859154928</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.19718309859154928</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.11267605633802817</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.21830985915492956</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.20422535211267606</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8914680192027975</v>
+        <v>0.7459517559915569</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.89170246439313</v>
+        <v>0.8839862227836695</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8045695634474732</v>
+        <v>0.8376161583121977</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8045695634474732</v>
+        <v>0.7175052372840299</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.233820459498643</v>
+        <v>7.619665905156277</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01819113412730896</v>
+        <v>0.016801652368255763</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.9683098591549295</v>
+        <v>2.692488262910798</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.287163560300686</v>
+        <v>0.8440903298159769</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8045695634474731</v>
+        <v>0.6984757985514244</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8045695634474732</v>
+        <v>0.8575362931895705</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8045695634474732</v>
+        <v>0.8629785704419528</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6473321824260578</v>
+        <v>0.7589817992941321</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8045695634474732</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8045695634474732</v>
-      </c>
+        <v>0.7589817992941321</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.298128498771535</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.023301543452894792</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8045695634474732</v>
+        <v>0.7589817992941321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6473321824260578</v>
+        <v>0.3761283200207808</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8045695634474732</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6473321824260578</v>
-      </c>
+        <v>0.8200994505889305</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6950581140065334</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6950581140065335</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.558626715002513</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.025788092387421743</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8045695634474732</v>
+        <v>0.6950581140065334</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.4221872894677745</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.8224736544932014</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6984757985514244</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6984757985514243</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>4.632966741613593</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.02759268316184909</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6984757985514244</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>142.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9514589479287832</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9498867204692022</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.852027507147959</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8045695634474731</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.0211267605633805</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3759242405498546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>142.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9482900891694053</v>
+        <v>0.7821537000280584</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9498867204692023</v>
+        <v>0.8855815110892008</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.852027507147959</v>
+        <v>0.7865239842071209</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8045695634474732</v>
+        <v>0.7425529370840335</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9154929577464788</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3341821291903007</v>
+        <v>0.2313895088043898</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>142.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9270114194410509</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.9092325792919002</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.844931153779887</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7804557517657483</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.3098591549295775</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.161944436554088</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>142.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9445044889723033</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.907968073187428</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8421681877182174</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7817208368493991</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.823943661971831</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.3490174821018006</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.21830985915492956</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.11267605633802817</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2605633802816901</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24647887323943662</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1619718309859155</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.056338028169014086</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9436619718309859</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.23943661971830985</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.323943661971831</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.22535211267605634</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.1267605633802817</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.056338028169014086</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.04929577464788732</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.352112676056338</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4647887323943662</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.06338028169014084</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.056338028169014086</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.007042253521126761</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.056338028169014086</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2323943661971831</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.2323943661971831</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.4154929577464789</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9780127411077686</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.978033985597967</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9570122409307601</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.95701224093076</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>44.52487227302584</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.003688396207905584</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6901408450704225</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5026364470751779</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9570122409307601</v>
+      <c r="A6" t="n" s="491">
+        <v>0.673454137866617</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6734706198544549</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5076937080583639</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5076937080583639</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.062511555787924</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05480351562033817</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.6408450704225352</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.266544689698668</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5076937080583639</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9570122409307601</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9570122409307601</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9158724292913152</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9570122409307601</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9570122409307601</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9570122409307601</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.5076937080583639</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.5076937080583639</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2577529012020515</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.5076937080583639</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.5076937080583639</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.5076937080583639</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9158724292913152</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9570122409307601</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9158724292913152</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9570122409307601</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2577529012020515</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.5076937080583639</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2577529012020515</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.5076937080583639</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>142.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9890942764950551</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.989194682792715</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9676995066191971</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.95701224093076</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6901408450704225</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5120466548373945</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8670232005337737</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8682435453426545</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6186463485952276</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.507693708058364</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.380281690140845</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4524735290916722</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>142.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9892946272530787</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.989194682792715</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9676995066191971</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9570122409307602</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.6901408450704225</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.5260531700744624</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8694586597076989</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8682435453426545</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6186463485952272</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.507693708058364</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>1.9014084507042253</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4650048248894458</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8098591549295775</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4295774647887324</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.176056338028169</v>
+      </c>
+      <c r="D23" t="n" s="571">
         <v>0.06338028169014084</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.04929577464788732</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="E23" t="n" s="572">
+        <v>0.24647887323943662</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8098591549295775</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06338028169014084</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.035211267605633804</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.06338028169014084</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2605633802816901</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.18309859154929578</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.1056338028169014</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.29577464788732394</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.15492957746478872</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.673454137866617</v>
+        <v>0.8914680192027975</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6734706198544549</v>
+        <v>0.89170246439313</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.062511555787924</v>
+        <v>8.233820459498643</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05480351562033817</v>
+        <v>0.01819113412730896</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.6408450704225352</v>
+        <v>1.9683098591549295</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.266544689698668</v>
+        <v>1.287163560300686</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474731</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2577529012020515</v>
+        <v>0.6473321824260578</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2577529012020515</v>
+        <v>0.6473321824260578</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2577529012020515</v>
+        <v>0.6473321824260578</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.5076937080583639</v>
+        <v>0.8045695634474732</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>142.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8670232005337737</v>
+        <v>0.9514589479287832</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8682435453426545</v>
+        <v>0.9498867204692022</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6186463485952276</v>
+        <v>0.852027507147959</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.507693708058364</v>
+        <v>0.8045695634474731</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.380281690140845</v>
+        <v>2.0211267605633805</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4524735290916722</v>
+        <v>1.3759242405498546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>142.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8694586597076989</v>
+        <v>0.9482900891694053</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8682435453426545</v>
+        <v>0.9498867204692023</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6186463485952272</v>
+        <v>0.852027507147959</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.507693708058364</v>
+        <v>0.8045695634474732</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>1.9014084507042253</v>
+        <v>1.9154929577464788</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4650048248894458</v>
+        <v>1.3341821291903007</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4295774647887324</v>
+        <v>0.21830985915492956</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.176056338028169</v>
+        <v>0.11267605633802817</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.06338028169014084</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="E23" t="n" s="686">
         <v>0.24647887323943662</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.08450704225352113</v>
+        <v>0.1619718309859155</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2605633802816901</v>
+        <v>0.23943661971830985</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.18309859154929578</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.1056338028169014</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.29577464788732394</v>
+        <v>0.22535211267605634</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.15492957746478872</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8133261020963308</v>
+        <v>0.7930249262147049</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8155798011217649</v>
+        <v>0.8221256619541434</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9103460942039995</v>
+        <v>0.9154525045700972</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.30663410217240633</v>
+        <v>0.31609652333417526</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.4223995315190905</v>
+        <v>4.62194643131825</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.024065648355767962</v>
+        <v>0.02474132594866585</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.2577464788732393</v>
+        <v>1.6866197183098592</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8554642009464738</v>
+        <v>0.7457899684597797</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2502209712780171</v>
+        <v>0.24273652259950762</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7946645670657085</v>
+        <v>0.782614448330512</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7948305433909173</v>
+        <v>0.7969749410781989</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8876630011504785</v>
+        <v>0.8949407202670843</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3009176528448497</v>
+        <v>0.30370200362809485</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.8740198298879265</v>
+        <v>3.925500356018459</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.026561548715541006</v>
+        <v>0.026765177683961045</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04125058437033494</v>
+        <v>0.050927167678953916</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.24608258464575788</v>
+        <v>0.2511082012378343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7996942075979367</v>
+        <v>0.75413653711715</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8003970521720237</v>
+        <v>0.791175419600346</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8888739962186913</v>
+        <v>0.8915984002263896</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.30822157405213824</v>
+        <v>0.2962541803591698</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.009946049803982</v>
+        <v>3.788708293277419</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.025877513572913766</v>
+        <v>0.02929981219078988</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.039037501670263146</v>
+        <v>0.05120116231098575</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.25670700829663695</v>
+        <v>0.23147946481228043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7962335561146952</v>
+        <v>0.7584361969954354</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7985051064344169</v>
+        <v>0.7936951021923782</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8845697056124511</v>
+        <v>0.8935568735036818</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.30571117733041253</v>
+        <v>0.299457956796209</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.962904926791694</v>
+        <v>3.847194664920143</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02631846538288939</v>
+        <v>0.028702756962662803</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03898573862970677</v>
+        <v>0.051359865877900236</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.25485042557708903</v>
+        <v>0.2511082012378343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7945220577346979</v>
+        <v>0.7962097568648228</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7954601873486448</v>
+        <v>0.8191386609682716</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8821871927515923</v>
+        <v>0.9103398117657158</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3017314436716563</v>
+        <v>0.3347671626142079</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.8890237408427275</v>
+        <v>4.529097624476678</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.026446595130908714</v>
+        <v>0.025460858731763184</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03904526368896733</v>
+        <v>0.05913659112693025</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.25670700829663695</v>
+        <v>0.26556730180505683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.792239518591791</v>
+        <v>0.7769228199769042</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.794843423666072</v>
+        <v>0.8053144135393495</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8860888896895432</v>
+        <v>0.9012398122563988</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.30093426901110276</v>
+        <v>0.3148853309494115</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.8743258338076663</v>
+        <v>4.136487082479101</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.026883713312085486</v>
+        <v>0.026197944109862308</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.042464170769838265</v>
+        <v>0.06416220710156552</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.24244468017868054</v>
+        <v>0.23147946481228043</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7913288598855002</v>
+        <v>0.7869564870386923</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7942977043585601</v>
+        <v>0.8109305156791722</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8857353951345742</v>
+        <v>0.9053291565383184</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.30023139951973915</v>
+        <v>0.32275123665420796</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.861394457858178</v>
+        <v>4.28906081059132</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.027037349133562028</v>
+        <v>0.024830461242884006</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.0415410440153716</v>
+        <v>0.06197879416154909</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.24608258464575788</v>
+        <v>0.26556730180505683</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7894176136363635</v>
+        <v>0.7928861461016331</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7943700496095955</v>
+        <v>0.8279823511717084</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8677501734167317</v>
+        <v>0.918561830575073</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.30032444454578716</v>
+        <v>0.34845671395202693</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.8631048059945616</v>
+        <v>4.813356982911694</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.027210912895390373</v>
+        <v>0.0246984172611028</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.037154155055321055</v>
+        <v>0.06491482674477342</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.25207755399756504</v>
+        <v>0.2620681401587518</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7924344566728967</v>
+        <v>0.7753960886283161</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7968972895376221</v>
+        <v>0.8124398449039325</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8697816489813243</v>
+        <v>0.9136698202301134</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.303600543414666</v>
+        <v>0.32491339333312624</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.9236172068970827</v>
+        <v>4.331622803829544</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.02683061190976308</v>
+        <v>0.026734546142824504</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03692784515620976</v>
+        <v>0.07400920552043443</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.25670700829663695</v>
+        <v>0.23147946481228043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8163792563600782</v>
+        <v>0.7605649517492066</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8188258367266158</v>
+        <v>0.8012128530808914</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.913783338728882</v>
+        <v>0.8911159085924479</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.33429740934552776</v>
+        <v>0.30931310148679925</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.519550811950167</v>
+        <v>4.030506325476489</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.023997600067248038</v>
+        <v>0.02861530144438959</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04109740828467197</v>
+        <v>0.06973564824736855</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.25670700829663695</v>
+        <v>0.20995139138332586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7994602739091294</v>
+        <v>0.7569068833115141</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8019996965351759</v>
+        <v>0.7990748939699012</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.906523669932747</v>
+        <v>0.8907078352566266</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.31037110798818357</v>
+        <v>0.3064641535684992</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.0504973098571835</v>
+        <v>3.9769788343433707</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.026034752475945153</v>
+        <v>0.029204778066225394</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04830779321794599</v>
+        <v>0.06883234737180104</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.24608258464575788</v>
+        <v>0.20995139138332586</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6204531545699367</v>
+        <v>0.6752181880404994</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6467268015650038</v>
+        <v>0.6920301015316355</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6184206917323891</v>
+        <v>0.7089046846428022</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5256823051440069</v>
+        <v>0.644901029325847</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.3098591549295775</v>
+        <v>0.19014084507042253</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.161944436554088</v>
+        <v>0.3938012349473898</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5834819797767831</v>
+        <v>0.7333979210299917</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6038441546251813</v>
+        <v>0.7352706412503199</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.5742492414130513</v>
+        <v>0.7584972624437161</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.46433932936898287</v>
+        <v>0.6153272962943217</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.823943661971831</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.3490174821018006</v>
+        <v>1.5120466548373945</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.607662117754159</v>
+        <v>0.7129572372180826</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6185831493708018</v>
+        <v>0.7166701700423646</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.5988052065781937</v>
+        <v>0.7370189303042053</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5001106090641002</v>
+        <v>0.5869368525676234</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.204225352112676</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.2746226386040982</v>
+        <v>1.5260531700744624</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6368367624429055</v>
+        <v>0.3983611755922725</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6419488879322572</v>
+        <v>0.5116721375328301</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.625461709644832</v>
+        <v>0.4647862213706588</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5128146967765637</v>
+        <v>0.37177770458310444</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.640845070422535</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.50809423344874</v>
+        <v>0.2313895088043898</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6442744887237518</v>
+        <v>0.5695317168491686</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6466292450373935</v>
+        <v>0.6271019887443634</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6219815484703508</v>
+        <v>0.5993499713174503</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5343145150682678</v>
+        <v>0.4495997294101231</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.0211267605633805</v>
+        <v>3.3098591549295775</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3759242405498546</v>
+        <v>1.161944436554088</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.649929683559373</v>
+        <v>0.5221108156938333</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6507559193795049</v>
+        <v>0.5814341478503938</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6277608894733427</v>
+        <v>0.54627763492424</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5449676735490065</v>
+        <v>0.37146141951817524</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9154929577464788</v>
+        <v>3.823943661971831</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3341821291903007</v>
+        <v>1.3490174821018006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6718846612832148</v>
+        <v>0.5049372624545105</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6502096351455592</v>
+        <v>0.432193400325984</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6680488456135093</v>
+        <v>0.34058079687517406</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5557585395417785</v>
+        <v>0.33818345102403996</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.6901408450704225</v>
+        <v>1.380281690140845</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5120466548373945</v>
+        <v>1.4524735290916722</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6526796384725827</v>
+        <v>0.6147993539566265</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6309750641326773</v>
+        <v>0.5688811080726018</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6474495133597693</v>
+        <v>0.48834719116913117</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5306178507692805</v>
+        <v>0.46860878085644775</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.6901408450704225</v>
+        <v>1.9014084507042253</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.5260531700744624</v>
+        <v>1.4650048248894458</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4622294982363084</v>
+        <v>0.6921146241734661</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.45074819331722676</v>
+        <v>0.6594532141560913</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3548158742156642</v>
+        <v>0.6354825965767659</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.31319474501335287</v>
+        <v>0.5752643559376837</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.380281690140845</v>
+        <v>2.0211267605633805</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4524735290916722</v>
+        <v>1.3759242405498546</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>142.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5970727326239451</v>
+        <v>0.7123380247078269</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5912238507844694</v>
+        <v>0.675993623503841</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5133351109226071</v>
+        <v>0.6535404728314974</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4688617023877637</v>
+        <v>0.6051171287478737</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>1.9014084507042253</v>
+        <v>1.9154929577464788</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4650048248894458</v>
+        <v>1.3341821291903007</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.056338028169014086</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.04929577464788732</v>
+        <v>0.19014084507042253</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.352112676056338</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4647887323943662</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.06338028169014084</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
+        <v>0.8098591549295775</v>
+      </c>
+      <c r="C40" t="n" s="798">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="D40" t="n" s="799">
+        <v>0.007042253521126761</v>
+      </c>
+      <c r="E40" t="n" s="800">
+        <v>0.06338028169014084</v>
+      </c>
+      <c r="F40" t="n" s="801">
         <v>0.056338028169014086</v>
       </c>
-      <c r="C40" t="n" s="798">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="E40" t="n" s="800">
-        <v>0.2323943661971831</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.2323943661971831</v>
-      </c>
       <c r="G40" t="n" s="802">
-        <v>0.4154929577464789</v>
+        <v>0.04929577464788732</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.07746478873239436</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.04929577464788732</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="D41" t="n" s="799">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.06338028169014084</v>
+      </c>
+      <c r="F41" t="n" s="801">
         <v>0.035211267605633804</v>
       </c>
-      <c r="E41" t="n" s="800">
-        <v>0.34507042253521125</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.4154929577464789</v>
-      </c>
       <c r="G41" t="n" s="802">
-        <v>0.07746478873239436</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.07746478873239436</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.007042253521126761</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.08450704225352113</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3028169014084507</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.08450704225352113</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.44366197183098594</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.21830985915492956</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.11267605633802817</v>
+        <v>0.04929577464788732</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2605633802816901</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.24647887323943662</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1619718309859155</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.23943661971830985</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.08450704225352113</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.323943661971831</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.22535211267605634</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.1267605633802817</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.4154929577464789</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8098591549295775</v>
+        <v>0.4295774647887324</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.014084507042253521</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.007042253521126761</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.06338028169014084</v>
+        <v>0.24647887323943662</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.056338028169014086</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.04929577464788732</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8098591549295775</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.014084507042253521</v>
+        <v>0.18309859154929578</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.014084507042253521</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.06338028169014084</v>
+        <v>0.29577464788732394</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.035211267605633804</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.06338028169014084</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4295774647887324</v>
+        <v>0.21830985915492956</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.176056338028169</v>
+        <v>0.11267605633802817</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.06338028169014084</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="E47" t="n" s="800">
         <v>0.24647887323943662</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.08450704225352113</v>
+        <v>0.1619718309859155</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2605633802816901</v>
+        <v>0.23943661971830985</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.18309859154929578</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.1056338028169014</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.29577464788732394</v>
+        <v>0.22535211267605634</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.15492957746478872</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
